--- a/サロン勉強計画.xlsx
+++ b/サロン勉強計画.xlsx
@@ -5,25 +5,26 @@
   <fileSharing readOnlyRecommended="0" userName="taniguchitakayasu"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="ﾜｰｸｼｰﾄ1" sheetId="1" r:id="rId4"/>
+    <sheet name="課題" sheetId="1" r:id="rId4"/>
+    <sheet name="gitコマンド一覧" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1593855401" val="976" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1593855401" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1593855401"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1593855401"/>
+      <pm:revision xmlns:pm="smNativeData" day="1593856890" val="976" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1593856890" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1593856890" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1593856890"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Git 課題</t>
   </si>
@@ -227,6 +228,153 @@
   </si>
   <si>
     <t>【テキスト教材】RailsアプリへのMarkdownの導入</t>
+  </si>
+  <si>
+    <t>Gitコマンド一覧</t>
+  </si>
+  <si>
+    <t>Gitでのバージョン管理を開始する</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>変更したファイルをインデックスにあげる</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>特定のファイルのインデックスへの追加を取り消す</t>
+  </si>
+  <si>
+    <t>git reset HEAD config/database.yml</t>
+  </si>
+  <si>
+    <t>変更履歴を保存</t>
+  </si>
+  <si>
+    <t>git commit -m "message"</t>
+  </si>
+  <si>
+    <t>コミットの履歴を確認</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>変更内容を一時的に退避（コミットする前の変更内容）</t>
+  </si>
+  <si>
+    <t>git stash</t>
+  </si>
+  <si>
+    <t>退避した変更を復元する</t>
+  </si>
+  <si>
+    <t>git stash pop</t>
+  </si>
+  <si>
+    <t>変更したファイルをリモートリポジトリに反映</t>
+  </si>
+  <si>
+    <t>git push origin remote_url</t>
+  </si>
+  <si>
+    <t>リモートリポジトリの状態を無視して強制プッシュ</t>
+  </si>
+  <si>
+    <t>git push -f origin remote_url</t>
+  </si>
+  <si>
+    <t>ブランチの確認</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>ブランチの切り替え</t>
+  </si>
+  <si>
+    <t>git checkout branch_name</t>
+  </si>
+  <si>
+    <t>ブランチを新規作成して切り替えまでを一気にやる</t>
+  </si>
+  <si>
+    <t>git checkout -b new_branch_name</t>
+  </si>
+  <si>
+    <t>ブランチ名の変更</t>
+  </si>
+  <si>
+    <t>git branch -m new_branch_name</t>
+  </si>
+  <si>
+    <t>過去のコミットの状態にファイルを戻す（1つ前に戻す）</t>
+  </si>
+  <si>
+    <t>git checkout HEAD^</t>
+  </si>
+  <si>
+    <t>過去のコミットの状態にファイルを戻す（3つ前に戻す）</t>
+  </si>
+  <si>
+    <t>git checkout HEAD^^^</t>
+  </si>
+  <si>
+    <t>リポジトリをクローンする</t>
+  </si>
+  <si>
+    <t>git clone github_url</t>
+  </si>
+  <si>
+    <t>前回のコミットとの変更点の差分を確認する</t>
+  </si>
+  <si>
+    <t>git diff HEAD^</t>
+  </si>
+  <si>
+    <t>2つ前のコミットとの変更点の差分を確認する</t>
+  </si>
+  <si>
+    <t>git diff HEAD^^</t>
+  </si>
+  <si>
+    <t>リモートリポジトリの変更内容をローカルリポジトリに反映させる（リモートリポジトリにあるブランチがローカルリポジトリに反映される）</t>
+  </si>
+  <si>
+    <t>git fetch</t>
+  </si>
+  <si>
+    <t>リモートリポジトリのブランチを確認する</t>
+  </si>
+  <si>
+    <t>git branch -a</t>
+  </si>
+  <si>
+    <t>HEADにマージしたローカルリポジトリのブランチを消す</t>
+  </si>
+  <si>
+    <t>git branch --delete branch_name</t>
+  </si>
+  <si>
+    <t>マージの有無にかかわらずローカルリポジトリのブランチを消す</t>
+  </si>
+  <si>
+    <t>git branch -D branch_name</t>
+  </si>
+  <si>
+    <t>過去のコミット3つ分をまとめる（コミットメッセージの変更もできる）</t>
+  </si>
+  <si>
+    <t>git rebase -i HEAD^^^</t>
+  </si>
+  <si>
+    <t>ローカルの変更内容を取り消す（新規追加したファイルは削除されない）</t>
+  </si>
+  <si>
+    <t>git checkout .</t>
   </si>
 </sst>
 </file>
@@ -251,7 +399,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593855401" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593856890" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -266,7 +414,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593855401" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593856890" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -288,7 +436,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1593855401" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1593856890" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -310,7 +458,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1593855401"/>
+          <pm:border xmlns:pm="smNativeData" id="1593856890"/>
         </ext>
       </extLst>
     </border>
@@ -329,7 +477,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1593855401"/>
+          <pm:border xmlns:pm="smNativeData" id="1593856890"/>
         </ext>
       </extLst>
     </border>
@@ -346,7 +494,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1593855401" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1593856890" count="1">
         <pm:charStyle name="標準" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -612,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -622,6 +770,7 @@
     <col min="2" max="2" width="3.441441" customWidth="1"/>
     <col min="3" max="3" width="3.720721" customWidth="1"/>
     <col min="4" max="4" width="91.351351" customWidth="1"/>
+    <col min="5" max="5" width="78.108108" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2">
@@ -1053,7 +1202,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1593855401" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1593856890" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1062,14 +1211,257 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1593855401" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1593855401" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1593856890" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1593856890" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593855401" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593856890" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <cols>
+    <col min="2" max="2" width="34.936937" customWidth="1"/>
+    <col min="3" max="3" width="54.054054" customWidth="1"/>
+    <col min="4" max="4" width="40.405405" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1593856890" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1593856890" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1593856890" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593856890" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/サロン勉強計画.xlsx
+++ b/サロン勉強計画.xlsx
@@ -5,26 +5,70 @@
   <fileSharing readOnlyRecommended="0" userName="taniguchitakayasu"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="課題" sheetId="1" r:id="rId4"/>
     <sheet name="gitコマンド一覧" sheetId="2" r:id="rId5"/>
+    <sheet name="ruby" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1593856890" val="976" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1593856890" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1593856890" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1593856890"/>
+      <pm:revision xmlns:pm="smNativeData" day="1593861695" val="976" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1593861695" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1593861695" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1593861695"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Unknown</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <t>教材のご案内</t>
+        </r>
+        <r>
+          <t xml:space="preserve">
+逆転教材の動画</t>
+        </r>
+        <r>
+          <t xml:space="preserve">
+Rubyで使用する主なクラスについて 〜 ハッシュについて</t>
+        </r>
+        <r>
+          <t xml:space="preserve">
+逆転教材のテキスト教材</t>
+        </r>
+        <r>
+          <t xml:space="preserve">
+プログラミングを学習するための基礎知識</t>
+        </r>
+        <r>
+          <t xml:space="preserve">
+入出力を行うためのメソッド一覧 〜 ハッシュ</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+  <si>
+    <t>タイトル</t>
+  </si>
+  <si>
+    <t>使っている技術</t>
+  </si>
   <si>
     <t>Git 課題</t>
   </si>
@@ -38,25 +82,40 @@
     <t xml:space="preserve"> Lv 3: プルリク</t>
   </si>
   <si>
-    <t>Ruby 課題（基礎） https://github.com/yoshitokamizato/joint_dev_task/blob/master/2_Ruby%E8%AA%B2%E9%A1%8C%EF%BC%88%E5%9F%BA%E7%A4%8E%EF%BC%89.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Q1. 次の配列の最後に "斎藤" を追加し，出力して下さい。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Q2. 次の二つの配列を合体させた新しい配列 array を作成し，出力して下さい。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Q3. 次の配列の中に 3 がいくつあるかを出力するコードを書き，出力して下さい。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Q4. 次の配列から nil の要素を削除し，出力して下さい。（新しい配列を作成せずに実現して下さい）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Q5. 配列が空であれば true，1つ以上の要素があれば false を出力するコードを書いて下さい。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Q6. 次の配列から，期待された結果の配列 numbers2 を作成し，出力して下さい。</t>
+    <t xml:space="preserve">Ruby 課題（基礎） </t>
+  </si>
+  <si>
+    <t>Q1. 次の配列の最後に "斎藤" を追加し，出力して下さい。</t>
+  </si>
+  <si>
+    <t>ヒント：検索キーワードは「ruby 配列　要素を追加」
+names = ["田中", "佐藤", "佐々木", "高橋"]</t>
+  </si>
+  <si>
+    <t>＜＜,puts</t>
+  </si>
+  <si>
+    <t>Q2. 次の二つの配列を合体させた新しい配列 array を作成し，出力して下さい。</t>
+  </si>
+  <si>
+    <t>ヒント：検索キーワードは「ruby 配列　結合」
+array1 = ["dog", "cat", "fish"]
+array2 = ["bird", "bat", "tiger"]</t>
+  </si>
+  <si>
+    <t>=,p</t>
+  </si>
+  <si>
+    <t>Q3. 次の配列の中に 3 がいくつあるかを出力するコードを書き，出力して下さい。</t>
+  </si>
+  <si>
+    <t>Q4. 次の配列から nil の要素を削除し，出力して下さい。（新しい配列を作成せずに実現して下さい）</t>
+  </si>
+  <si>
+    <t>Q5. 配列が空であれば true，1つ以上の要素があれば false を出力するコードを書いて下さい。</t>
+  </si>
+  <si>
+    <t>Q6. 次の配列から，期待された結果の配列 numbers2 を作成し，出力して下さい。</t>
   </si>
   <si>
     <t>Q7. 次の配列の要素を 文字列 から 数字 に変換し，出力して下さい。（新しい配列を作成せずに実現して下さい）</t>
@@ -375,6 +434,12 @@
   </si>
   <si>
     <t>git checkout .</t>
+  </si>
+  <si>
+    <t>関数一覧</t>
+  </si>
+  <si>
+    <t>ライブラリ一覧</t>
   </si>
 </sst>
 </file>
@@ -391,7 +456,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;¥&quot;_-;\-* #,##0.00\ &quot;¥&quot;_-;_-* &quot;-&quot;??\ &quot;¥&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _¥_-;\-* #,##0.00\ _¥_-;_-* &quot;-&quot;??\ _¥_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
       <family val="1"/>
@@ -399,7 +464,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593856890" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593861695" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -414,10 +479,92 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593856890" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593861695" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="1"/>
+      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593861695" fgClr="0000FF" ulstyle="single" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="1"/>
+      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593861695" fgClr="0000FF" ulstyle="single" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+            <hyperlink type="6" url="https://docs.ruby-lang.org/ja/latest/function/index.html" location="" text=""/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="1"/>
+      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593861695" fgClr="0000FF" ulstyle="single" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+            <hyperlink type="6" url="https://docs.ruby-lang.org/ja/latest/library/index.html" location="" text=""/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593861695" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="240" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="1"/>
+      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593861695" fgClr="0000FF" ulstyle="single" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+            <hyperlink type="6" url="https://github.com/yoshitokamizato/joint_dev_task/blob/master/2_Ruby課題（基礎）.md" location="" text=""/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -436,7 +583,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1593856890" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1593861695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -458,7 +605,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1593856890"/>
+          <pm:border xmlns:pm="smNativeData" id="1593861695"/>
         </ext>
       </extLst>
     </border>
@@ -477,24 +624,40 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1593856890"/>
+          <pm:border xmlns:pm="smNativeData" id="1593861695"/>
         </ext>
       </extLst>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1593856890" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1593861695" count="1">
         <pm:charStyle name="標準" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -758,451 +921,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:D83"/>
+  <dimension ref="A1:XFD74"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.80"/>
   <cols>
-    <col min="1" max="1" width="4.729730" customWidth="1"/>
-    <col min="2" max="2" width="3.441441" customWidth="1"/>
-    <col min="3" max="3" width="3.720721" customWidth="1"/>
-    <col min="4" max="4" width="91.351351" customWidth="1"/>
-    <col min="5" max="5" width="78.108108" customWidth="1"/>
+    <col min="1" max="1" width="2.432432" customWidth="1" style="4"/>
+    <col min="2" max="2" width="2.558559" customWidth="1" style="4"/>
+    <col min="3" max="3" width="2.639640" customWidth="1" style="4"/>
+    <col min="4" max="4" width="73.171171" customWidth="1" style="5"/>
+    <col min="5" max="5" width="60.675676" customWidth="1" style="4"/>
+    <col min="6" max="6" width="33.990991" customWidth="1" style="7"/>
+    <col min="7" max="16384" width="10.000000" style="4"/>
   </cols>
   <sheetData>
+    <row r="2" spans="4:6">
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4"/>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5"/>
-      <c r="C5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6"/>
-      <c r="C6" t="s">
+    <row r="4" spans="4:4">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+    <row r="5" spans="4:4">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9"/>
-      <c r="C9" t="s">
+    <row r="6" spans="4:4">
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10"/>
-      <c r="C10" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11"/>
-      <c r="C11" t="s">
+    <row r="8" spans="4:6">
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12"/>
-      <c r="C12" t="s">
+      <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13"/>
-      <c r="C13" t="s">
+      <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14"/>
-      <c r="C14" t="s">
+    <row r="9" spans="4:6">
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15"/>
-      <c r="C15" t="s">
+      <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16"/>
-      <c r="C16" t="s">
+      <c r="F9" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17"/>
-      <c r="C17" t="s">
+    <row r="10" spans="4:4">
+      <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18"/>
-      <c r="C18" t="s">
+    <row r="11" spans="4:4">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19"/>
-      <c r="C19" t="s">
+    <row r="12" spans="4:4">
+      <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20"/>
-      <c r="C20" t="s">
+    <row r="13" spans="4:4">
+      <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21"/>
-      <c r="C21" t="s">
+    <row r="14" spans="4:4">
+      <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22"/>
-      <c r="C22" t="s">
+    <row r="15" spans="4:4">
+      <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23"/>
-      <c r="C23" t="s">
+    <row r="16" spans="4:4">
+      <c r="D16" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24"/>
-      <c r="C24" t="s">
+    <row r="17" spans="4:4">
+      <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+    <row r="18" spans="4:4">
+      <c r="D18" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27"/>
-      <c r="C27" t="s">
+    <row r="19" spans="4:4">
+      <c r="D19" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
-      <c r="B28"/>
-      <c r="C28" t="s">
+    <row r="20" spans="4:4">
+      <c r="D20" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29" t="s">
+    <row r="21" spans="4:4">
+      <c r="D21" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
-      <c r="C30"/>
-      <c r="D30" t="s">
+    <row r="22" spans="4:4">
+      <c r="D22" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31" t="s">
+    <row r="23" spans="3:4">
+      <c r="D23" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
-      <c r="B32"/>
-      <c r="C32" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33" t="s">
+    <row r="26" spans="3:3">
+      <c r="C26" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34" t="s">
+    <row r="27" spans="3:3">
+      <c r="C27" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35" t="s">
+    <row r="28" spans="4:4">
+      <c r="D28" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36" t="s">
+    <row r="29" spans="4:4">
+      <c r="D29" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37" t="s">
+    <row r="30" spans="4:4">
+      <c r="D30" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38" t="s">
+    <row r="31" spans="3:3">
+      <c r="C31" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+    <row r="32" spans="4:4">
+      <c r="D32" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
-      <c r="B42"/>
-      <c r="C42" t="s">
+    <row r="33" spans="4:4">
+      <c r="D33" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="B43"/>
-      <c r="C43" t="s">
+    <row r="34" spans="4:4">
+      <c r="D34" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
-      <c r="B44"/>
-      <c r="C44" t="s">
+    <row r="35" spans="4:4">
+      <c r="D35" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
-      <c r="B45"/>
-      <c r="C45" t="s">
+    <row r="36" spans="4:4">
+      <c r="D36" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
-      <c r="B46"/>
-      <c r="C46" t="s">
+    <row r="37" spans="4:4">
+      <c r="D37" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49"/>
-      <c r="C49" t="s">
+    <row r="41" spans="3:3">
+      <c r="C41" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
-      <c r="B50"/>
-      <c r="D50" t="s">
+    <row r="42" spans="3:4">
+      <c r="D42" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
-      <c r="B51"/>
-      <c r="D51" t="s">
+    <row r="43" spans="3:4">
+      <c r="D43" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
-      <c r="B52"/>
-      <c r="D52" t="s">
+    <row r="44" spans="3:4">
+      <c r="D44" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
-      <c r="B53"/>
-      <c r="D53" t="s">
+    <row r="45" spans="3:4">
+      <c r="D45" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
-      <c r="B54"/>
-      <c r="D54" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
-      <c r="B55"/>
-      <c r="D55" t="s">
+    <row r="48" spans="3:3">
+      <c r="C48" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
-      <c r="B56"/>
-      <c r="C56" t="s">
+    <row r="49" spans="4:4">
+      <c r="D49" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
-      <c r="B57"/>
-      <c r="D57" t="s">
+    <row r="50" spans="4:4">
+      <c r="D50" s="5" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="58" spans="4:4">
-      <c r="D58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59"/>
-      <c r="D59" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60"/>
-      <c r="C60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61"/>
-      <c r="D61" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62"/>
-      <c r="D62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64"/>
-      <c r="C64" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65"/>
-      <c r="D65" t="s">
+      <c r="D58" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
-      <c r="B66"/>
-      <c r="D66" t="s">
+    <row r="59" spans="3:3">
+      <c r="C59" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
-      <c r="B67"/>
-      <c r="D67" t="s">
+    <row r="60" spans="4:4">
+      <c r="D60" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
+    <row r="61" spans="4:4">
+      <c r="D61" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
-      <c r="B69"/>
-      <c r="D69" t="s">
+    <row r="62" spans="4:4">
+      <c r="D62" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
-      <c r="B70"/>
-      <c r="D70" t="s">
+    <row r="63" spans="3:3">
+      <c r="C63" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
-      <c r="B71"/>
-      <c r="D71" t="s">
+    <row r="64" spans="4:4">
+      <c r="D64" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
-      <c r="B72"/>
-      <c r="C72" t="s">
+    <row r="65" spans="4:4">
+      <c r="D65" s="5" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="73" spans="4:4">
-      <c r="D73" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74"/>
-      <c r="D74" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="B75"/>
-      <c r="D75" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76"/>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77"/>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79"/>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83"/>
+      <c r="D73" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1593856890" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1593861695" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1211,14 +1315,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1593856890" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1593856890" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1593861695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1593861695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593856890" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593861695" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1231,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1244,208 +1349,208 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1593856890" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1593861695" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1454,14 +1559,67 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1593856890" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1593856890" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1593861695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1593861695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593856890" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593861695" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1593861695" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1593861695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1593861695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593861695" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/サロン勉強計画.xlsx
+++ b/サロン勉強計画.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1593861695" val="976" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1593861695" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1593861695" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1593861695"/>
+      <pm:revision xmlns:pm="smNativeData" day="1593865293" val="976" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1593865293" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1593865293" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1593865293"/>
     </ext>
   </extLst>
 </workbook>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="146">
   <si>
     <t>タイトル</t>
   </si>
@@ -98,54 +98,131 @@
     <t>Q2. 次の二つの配列を合体させた新しい配列 array を作成し，出力して下さい。</t>
   </si>
   <si>
-    <t>ヒント：検索キーワードは「ruby 配列　結合」
-array1 = ["dog", "cat", "fish"]
-array2 = ["bird", "bat", "tiger"]</t>
-  </si>
-  <si>
-    <t>=,p</t>
+    <t>ヒント：検索キーワードは「ruby 配列　結合」</t>
+  </si>
+  <si>
+    <t>=,p,puts</t>
   </si>
   <si>
     <t>Q3. 次の配列の中に 3 がいくつあるかを出力するコードを書き，出力して下さい。</t>
   </si>
   <si>
+    <t>ヒント：検索キーワードは「ruby 配列 要素 数える」</t>
+  </si>
+  <si>
+    <t>p x.count(X)</t>
+  </si>
+  <si>
     <t>Q4. 次の配列から nil の要素を削除し，出力して下さい。（新しい配列を作成せずに実現して下さい）</t>
   </si>
   <si>
+    <t>ヒント：「破壊的メソッド」</t>
+  </si>
+  <si>
+    <t>p x.compact!</t>
+  </si>
+  <si>
     <t>Q5. 配列が空であれば true，1つ以上の要素があれば false を出力するコードを書いて下さい。</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>p x.empty?,puts x.empty?</t>
+  </si>
+  <si>
     <t>Q6. 次の配列から，期待された結果の配列 numbers2 を作成し，出力して下さい。</t>
   </si>
   <si>
+    <t>期待する配列
+[10, 20, 30, 40, 50]</t>
+  </si>
+  <si>
+    <t>x.map{|n|n*10}</t>
+  </si>
+  <si>
     <t>Q7. 次の配列の要素を 文字列 から 数字 に変換し，出力して下さい。（新しい配列を作成せずに実現して下さい）</t>
   </si>
   <si>
+    <t>期待する配列
+[1, 2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>p x.map!(&amp;:to_i)</t>
+  </si>
+  <si>
     <t>Q8. 期待する出力結果になるようにコードを書き加えて下さい。</t>
   </si>
   <si>
+    <t>期待する出力結果
+["Ruby", "Php", "Python", "Javascript"]
+["RUBY", "PHP", "PYTHON", "JAVASCRIPT"]</t>
+  </si>
+  <si>
+    <t>p x.map!(&amp;:capitalize)
+p y = x.map(&amp;:upcase)</t>
+  </si>
+  <si>
     <t>Q9. 次の配列を用いて，期待通りの出力結果になるようにコードを書いて下さい。</t>
   </si>
   <si>
+    <t>期待結果
+会員No.1 田中さん
+会員No.2 佐藤さん
+会員No.3 佐々木さん
+会員No.4 高橋さん</t>
+  </si>
+  <si>
+    <t>x.each.with_index(1) do |name, i|
+puts "会員No.#{i}\s#{name}さん"</t>
+  </si>
+  <si>
     <t>Q10. 次の配列の各要素について， うに という文字列が含まれていれば「好物です」と表示し，そうでなければ「まぁまぁ好きです」と出力するコードを書いて下さい。</t>
   </si>
   <si>
+    <t xml:space="preserve">  foods.each do |food|
+    if food.include?("うに")
+    else
+</t>
+  </si>
+  <si>
     <t>Q11. 次の配列を用いて，期待する出力結果になるようにコードを書いて下さい。</t>
   </si>
   <si>
+    <t>x.flatten.uniq.each.with_index(1) do |sport,n|
+    puts "No#{n} #{sport}"</t>
+  </si>
+  <si>
     <t>Q12. 次のハッシュから name の値を出力して下さい。</t>
   </si>
   <si>
+    <t>p data[:user][:name]</t>
+  </si>
+  <si>
     <t>Q13. 次の user_data に，update_data の内容を反映させ，user_data の内容を書き換え，出力して下さい。</t>
   </si>
   <si>
+    <t>p user_data = user_data.merge(update_data)</t>
+  </si>
+  <si>
     <t>Q14. 次の配列から全てのキーを取り出した配列を作成し，出力して下さい。</t>
   </si>
   <si>
+    <t>p data.keys</t>
+  </si>
+  <si>
     <t>Q15. age というキーが含まれている場合は OK ，含まれていない場合は NG という文字列が出力されるコードを書いて下さい。</t>
   </si>
   <si>
+    <t xml:space="preserve">  p (data1.has_key?(:age) ? "OK" : "NG")
+  p (data2.has_key?(:age) ? "OK" : "NG")</t>
+  </si>
+  <si>
     <t>Q16. 次の配列の各要素について，「私の名前は〜です。年齢は〜歳です。」と表示して下さい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  users.each do |user|
+    puts "私の名前は#{user[:name]}です。年齢は#{user[:age]}歳です。"</t>
   </si>
   <si>
     <t>Rails 課題（基礎）</t>
@@ -464,7 +541,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593861695" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593865293" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -479,7 +556,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593861695" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593865293" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -495,7 +572,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593861695" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593865293" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -511,7 +588,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593861695" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593865293" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -528,7 +605,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593861695" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593865293" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -544,7 +621,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593861695" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593865293" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -560,7 +637,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593861695" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593865293" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -583,7 +660,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1593861695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1593865293" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -605,7 +682,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1593861695"/>
+          <pm:border xmlns:pm="smNativeData" id="1593865293"/>
         </ext>
       </extLst>
     </border>
@@ -624,7 +701,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1593861695"/>
+          <pm:border xmlns:pm="smNativeData" id="1593865293"/>
         </ext>
       </extLst>
     </border>
@@ -633,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -643,6 +720,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -657,7 +737,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1593861695" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1593865293" count="1">
         <pm:charStyle name="標準" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -921,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD74"/>
+  <dimension ref="B2:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.80"/>
@@ -990,313 +1070,379 @@
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="4:6">
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="4:4">
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
       <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="4:4">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
       <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
       <c r="D13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4">
+        <v>22</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
       <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4">
+        <v>25</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
       <c r="D15" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="4:4">
+        <v>28</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
       <c r="D16" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
+        <v>31</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
       <c r="D17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="4:4">
+      <c r="F17" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
       <c r="D18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
+        <v>36</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
       <c r="D19" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
+        <v>38</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
       <c r="D20" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
+        <v>40</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
       <c r="D21" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4">
+        <v>42</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
       <c r="D22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
+        <v>44</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
       <c r="D23" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="5" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="5" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="5" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="4" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="5" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="5" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="4:4">
       <c r="D36" s="5" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" s="5" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="4" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
       <c r="D42" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
       <c r="D43" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
       <c r="D44" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
       <c r="D45" s="5" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="4" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="4" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="5" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="5" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="5" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="5" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="5" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="5" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="4" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="5" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="5" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" s="5" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="4" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" s="5" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" s="5" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="5" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="4" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" s="5" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="5" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="5" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="4" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" s="5" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="4" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" s="5" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" s="5" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" s="5" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1452,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1593861695" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1593865293" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1315,15 +1461,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1593861695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1593861695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1593865293" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1593865293" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593861695" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593865293" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1349,208 +1495,208 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1593861695" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1593865293" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1559,14 +1705,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1593861695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1593861695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1593865293" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1593865293" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593861695" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593865293" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1587,12 +1733,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1749,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1593861695" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1593865293" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1612,14 +1758,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1593861695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1593861695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1593865293" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1593865293" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593861695" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593865293" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/サロン勉強計画.xlsx
+++ b/サロン勉強計画.xlsx
@@ -16,10 +16,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1593955470" val="976" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1593955470" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1593955470" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1593955470"/>
+      <pm:revision xmlns:pm="smNativeData" day="1594116063" val="976" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1594116063" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1594116063" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1594116063"/>
     </ext>
   </extLst>
 </workbook>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="177">
   <si>
     <t>task.rb</t>
   </si>
@@ -223,22 +223,37 @@
     puts "No#{n} #{sport}"</t>
   </si>
   <si>
+    <t xml:space="preserve">flatten は自身を再帰的に平坦化した配列を生成して返します。
+uniq は配列から重複した要素を取り除いた新しい配列を返します。
+</t>
+  </si>
+  <si>
     <t>Q12. 次のハッシュから name の値を出力して下さい。</t>
   </si>
   <si>
     <t>p data[:user][:name]</t>
   </si>
   <si>
+    <t xml:space="preserve">ネストされている連想配列からkeyに該当するvalueを取得  digも可能
+</t>
+  </si>
+  <si>
     <t>Q13. 次の user_data に，update_data の内容を反映させ，user_data の内容を書き換え，出力して下さい。</t>
   </si>
   <si>
     <t>p user_data = user_data.merge(update_data)</t>
   </si>
   <si>
+    <t>ハッシュの内容を順番にマージ(統合)します。</t>
+  </si>
+  <si>
     <t>Q14. 次の配列から全てのキーを取り出した配列を作成し，出力して下さい。</t>
   </si>
   <si>
     <t>p data.keys</t>
+  </si>
+  <si>
+    <t>全キーの配列を返します。</t>
   </si>
   <si>
     <t>Q15. age というキーが含まれている場合は OK ，含まれていない場合は NG という文字列が出力されるコードを書いて下さい。</t>
@@ -246,6 +261,9 @@
   <si>
     <t xml:space="preserve">  p (data1.has_key?(:age) ? "OK" : "NG")
   p (data2.has_key?(:age) ? "OK" : "NG")</t>
+  </si>
+  <si>
+    <t>ハッシュが key をキーとして持つ時真を返します。</t>
   </si>
   <si>
     <t>Q16. 次の配列の各要素について，「私の名前は〜です。年齢は〜歳です。」と表示して下さい。</t>
@@ -276,6 +294,9 @@
   user2.info</t>
   </si>
   <si>
+    <t>可変長引数</t>
+  </si>
+  <si>
     <t>Q18. 年齢を用いた場合分けを利用して，期待する出力結果になるようなUserクラスを作成して下さい。</t>
   </si>
   <si>
@@ -297,6 +318,10 @@
   <si>
     <t xml:space="preserve">  book = Item.new(name: "ゼロ秒思考")
   puts book.name</t>
+  </si>
+  <si>
+    <t>initialize:ユーザ定義クラスのオブジェクト初期化メソッド。
+attr_reader:インスタンス変数 name の読み取りメソッドを定義</t>
   </si>
   <si>
     <t>Q20. 次の仕様を満たした上で，期待する出力結果になるようにコードを追加して下さい。</t>
@@ -604,6 +629,18 @@
   </si>
   <si>
     <t>変数名の前に@をつける。</t>
+  </si>
+  <si>
+    <t>メソッドの仮引数の前に* を付けると、複数の引数をまとめて配列として受け取ることができます。ただしこの可変長引数は1メソッドにつき、1つだけしか指定するができません。</t>
+  </si>
+  <si>
+    <t>＊</t>
+  </si>
+  <si>
+    <t>** とアスタリスクを2つ定義すると複数の引数をhashでまとめて受けられます。</t>
+  </si>
+  <si>
+    <t>＊＊</t>
   </si>
 </sst>
 </file>
@@ -628,7 +665,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593955470" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -643,7 +680,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593955470" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -659,7 +696,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593955470" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -675,7 +712,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593955470" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -692,7 +729,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593955470" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -708,7 +745,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593955470" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -724,7 +761,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593955470" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -741,7 +778,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593955470" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -757,7 +794,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593955470" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="360" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -773,7 +810,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593955470" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="360" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -796,7 +833,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1593955470" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594116063" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -818,7 +855,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1593955470"/>
+          <pm:border xmlns:pm="smNativeData" id="1594116063"/>
         </ext>
       </extLst>
     </border>
@@ -837,7 +874,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1593955470"/>
+          <pm:border xmlns:pm="smNativeData" id="1594116063"/>
         </ext>
       </extLst>
     </border>
@@ -846,7 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -865,12 +902,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
@@ -882,7 +913,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1593955470" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1594116063" count="1">
         <pm:charStyle name="標準" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -1146,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD67"/>
+  <dimension ref="B1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.80"/>
@@ -1160,18 +1191,18 @@
     <col min="4" max="4" width="42.423423" customWidth="1" style="6"/>
     <col min="5" max="5" width="54.252252" customWidth="1" style="5"/>
     <col min="6" max="6" width="33.990991" customWidth="1" style="6"/>
-    <col min="7" max="7" width="41.558559" customWidth="1" style="12"/>
+    <col min="7" max="7" width="41.558559" customWidth="1" style="6"/>
     <col min="8" max="16384" width="10.000000" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="9" customFormat="1" ht="22.70">
+    <row r="1" spans="2:7" s="9" customFormat="1" ht="22.70">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="13"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="3" spans="4:6">
       <c r="D3" s="6" t="s">
@@ -1217,7 +1248,7 @@
       <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1228,7 +1259,7 @@
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1242,7 +1273,7 @@
       <c r="F11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1256,7 +1287,7 @@
       <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1270,7 +1301,7 @@
       <c r="F13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1284,7 +1315,7 @@
       <c r="F14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1298,7 +1329,7 @@
       <c r="F15" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1312,7 +1343,7 @@
       <c r="F16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1326,7 +1357,7 @@
       <c r="F17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1340,280 +1371,301 @@
       <c r="F18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="4:6">
+    <row r="19" spans="4:7">
       <c r="D19" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="4:6">
+      <c r="G19" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
       <c r="D20" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6">
+        <v>50</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
       <c r="D21" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6">
+        <v>53</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
       <c r="D22" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6">
+        <v>56</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
       <c r="D23" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
       <c r="B26" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7">
       <c r="D27" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="4:6">
       <c r="D28" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
       <c r="D29" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="4:6">
       <c r="D30" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" s="6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="4:4">
       <c r="D36" s="6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" s="6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" s="6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="6" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" s="6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="6" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" s="6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="6" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" s="6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1677,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1593955470" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594116063" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1634,15 +1686,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1593955470" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1593955470" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594116063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594116063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId5"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593955470" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594116063" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1668,208 +1720,208 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1593955470" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594116063" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1878,14 +1930,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1593955470" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1593955470" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594116063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594116063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593955470" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594116063" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1906,12 +1958,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +1974,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1593955470" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594116063" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1931,14 +1983,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1593955470" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1593955470" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594116063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594116063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593955470" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594116063" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1964,35 +2016,57 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="3:3">
@@ -2002,7 +2076,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1593955470" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594116063" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2011,14 +2085,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1593955470" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1593955470" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594116063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594116063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593955470" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594116063" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/サロン勉強計画.xlsx
+++ b/サロン勉強計画.xlsx
@@ -5,21 +5,22 @@
   <fileSharing readOnlyRecommended="0" userName="taniguchitakayasu"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="4" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="課題" sheetId="1" r:id="rId4"/>
     <sheet name="gitコマンド一覧" sheetId="2" r:id="rId5"/>
     <sheet name="ruby" sheetId="3" r:id="rId6"/>
     <sheet name="索引" sheetId="4" r:id="rId7"/>
+    <sheet name="ドラクエ風アプリ" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1594116063" val="976" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1594116063" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1594116063" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1594116063"/>
+      <pm:revision xmlns:pm="smNativeData" day="1594298815" val="976" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1594298815" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1594298815" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1594298815"/>
     </ext>
   </extLst>
 </workbook>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="210">
   <si>
     <t>task.rb</t>
   </si>
@@ -320,7 +321,8 @@
   puts book.name</t>
   </si>
   <si>
-    <t>initialize:ユーザ定義クラスのオブジェクト初期化メソッド。
+    <t>initialize:ユーザ定義クラスのオブジェクト初期化メソッド。このメソッドをクラス内に記述した場合にはオブジェクトが作成される時に自動的に呼び出されます
+initializeメソッドでインスタンス変数に値を代入する（name:）
 attr_reader:インスタンス変数 name の読み取りメソッドを定義</t>
   </si>
   <si>
@@ -609,16 +611,16 @@
   end</t>
   </si>
   <si>
-    <t>クラス変数</t>
-  </si>
-  <si>
-    <t>クラス変数はクラス定義の中で定義され、クラスの特異メソッドやインスタンスメソッドから参照・代入できる。
-クラス、サブクラスのみから参照可能。
-クラス変数の値はクラスのすべてのインスタンスで共有する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-変数名の前に＠＠をつける。</t>
+    <t>ゲッター</t>
+  </si>
+  <si>
+    <t>ゲッターとは、クラス内にあるインスタンス変数の値を取得し、クラス外から参照できるようにするためのメソッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # nameのゲッター
+  def name
+    @name
+  end</t>
   </si>
   <si>
     <t>インスタンス変数</t>
@@ -641,13 +643,163 @@
   </si>
   <si>
     <t>＊＊</t>
+  </si>
+  <si>
+    <t>initializeメソッド</t>
+  </si>
+  <si>
+    <t>インスタンス化されると同時に実行される
+クラスのインスタンス変数に初期値を設定したい場合にとても便利</t>
+  </si>
+  <si>
+    <t>キーワード引数</t>
+  </si>
+  <si>
+    <t>ハッシュ</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # paramsで一括で受け取る
+  def initialize(params)
+    # 各パラメータをハッシュで取得
+    @name = params[:name]
+    @hp = params[:hp]
+    @offense = params[:offense]
+    @defense = params[:defense]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # 引数に**を記述：ハッシュしか受け取れなくなる
+  def initialize(**params)
+    @name = params[:name]
+    @hp = params[:hp]
+    @offense = params[:offense]
+    @defense = params[:defense]</t>
+  </si>
+  <si>
+    <t>attr_reader</t>
+  </si>
+  <si>
+    <t>アクセスメソッド ゲッターの役割を果たすことができる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # attr_readerの記述でゲッターを省略することができる
+  attr_reader :name
+  attr_reader :hp
+  attr_reader :offense
+  attr_reader :defense
+  # 複数の値を同時に指定することができる
+  attr_reader :name, :hp, :offense, :defense</t>
+  </si>
+  <si>
+    <t>attr_writer</t>
+  </si>
+  <si>
+    <t>アクセスメソッド セッターの役割</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # attr_writerでセッターを定義
+  attr_writer :hp</t>
+  </si>
+  <si>
+    <t>attr_accessor</t>
+  </si>
+  <si>
+    <t>アクセスメソッド ゲッター＆セッター</t>
+  </si>
+  <si>
+    <t>class Monster
+  attr_reader :name, :offense, :defense
+  attr_accessor :hp
+end</t>
+  </si>
+  <si>
+    <t>攻撃処理は大きく分けると以下の3つになります。
+引数で攻撃対象のインスタンスを受け取る
+ダメージ計算（攻撃する側の攻撃力 - 攻撃される側の防御力）
+攻撃対象のHPから計算したダメージを引く
+＋ダメージを受けた後のHPをモンスターインスタンスのHPに代入する
+これらの処理を実現するためにはどうすればいいのか？</t>
+  </si>
+  <si>
+    <t>パラメータの受け渡しやメソッドの切り分けについて教えてくれる</t>
+  </si>
+  <si>
+    <t>クラス</t>
+  </si>
+  <si>
+    <t>ゆうしゃクラス、モンスタークラス</t>
+  </si>
+  <si>
+    <t>メソッド</t>
+  </si>
+  <si>
+    <t>attackメソッド 
+「引数で攻撃対象のインスタンスを受け取る」という処理を行う</t>
+  </si>
+  <si>
+    <t>ゆうしゃクラス内
+ # 引数でモンスタークラスのインスタンスを受け取る
+  def attack(monster)
+    # モンスタークラスのインスタンスが参照できているか確かめる
+    puts "テスト：#{monster.name}のHPを表示 -&gt; #{monster.hp}"
+  end</t>
+  </si>
+  <si>
+    <t>テスト：スライムのHPを表示 -&gt; 250</t>
+  </si>
+  <si>
+    <t>calculate_special_attackメソッド
+大きく分けると以下の2つになります。
+attackにて4分の1の確率でcalculate_special_attackメソッドを実行
+攻撃者の攻撃力がcalculate_special_attack実行時のみ1.5倍になる</t>
+  </si>
+  <si>
+    <t>定数の使い方</t>
+  </si>
+  <si>
+    <t>モンスタークラスの攻撃処理に関しては、以下のような仕様になります。
+HPが半分よりも多ければ通常攻撃
+HPが半分以下になると変身して攻撃力が1.5倍</t>
+  </si>
+  <si>
+    <t>変身時の攻撃処理の実装
+それでは次に「HPが半分以下になると変身して攻撃力が1.5倍」になる処理を書いていきましょう。こちらは少し難しいので実装を細かく切り分けて進めていきましょう。手順は以下のようになります。
+【手順】
+initializeメソッドにて、モンスターが変身したかどうかを判定するフラグを定義しfalseを代入（変数名は自分で考えてみてください）
+initializeメソッドにて、HPの半分の値（変身のトリガーとなる値）を計算して変数に代入（変数名は自分で考えてみてください）
+変身メソッドを定義
+HPが半分以下、かつ、モンスター変身判定フラグがfalseなら変身メソッドを実行し、モンスター変身判定フラグにtrueを代入
+「変身」メソッド内で、「スライムは怒っている」「スライムはドラゴンに変身した」というメッセージを出力
+モンスターの攻撃力を1.5倍に変更
+モンスターの名前をドラゴンに変更する</t>
+  </si>
+  <si>
+    <t>まずは「initializeメソッドにて、モンスターが変身したかどうかを判定するフラグを定義しfalseを代入</t>
+  </si>
+  <si>
+    <t># モンスターが変身したかどうかを判定するフラグ
+@transform_flag = false</t>
+  </si>
+  <si>
+    <t>「initializeメソッドにて、HPの半分の値（変身のトリガーとなる値）を計算して変数に代入」を実装</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># HPの半分の値（変身のトリガーとなる値）を計算
+@trigger_of_transform = params[:hp] * 0.5
+</t>
+  </si>
+  <si>
+    <t>変身メソッドを定義
+HPが半分以下、かつ、モンスター変身判定フラグがfalseなら「変身」メソッドを実行しモンスター変身判定フラグにtrueを代入</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;¥&quot;;\-#,##0\ &quot;¥&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;¥&quot;;[Red]\-#,##0\ &quot;¥&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;¥&quot;;\-#,##0.00\ &quot;¥&quot;"/>
@@ -656,6 +808,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _¥_-;\-* #,##0\ _¥_-;_-* &quot;-&quot;\ _¥_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;¥&quot;_-;\-* #,##0.00\ &quot;¥&quot;_-;_-* &quot;-&quot;??\ &quot;¥&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _¥_-;\-* #,##0.00\ _¥_-;_-* &quot;-&quot;??\ _¥_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="DD/MM"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -665,7 +818,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -680,7 +833,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -696,7 +849,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -712,7 +865,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -729,7 +882,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -745,7 +898,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -761,7 +914,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -778,7 +931,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -794,7 +947,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="360" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -810,7 +963,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594116063" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="360" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -833,7 +986,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594116063" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594298815" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -855,7 +1008,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594116063"/>
+          <pm:border xmlns:pm="smNativeData" id="1594298815"/>
         </ext>
       </extLst>
     </border>
@@ -874,7 +1027,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594116063"/>
+          <pm:border xmlns:pm="smNativeData" id="1594298815"/>
         </ext>
       </extLst>
     </border>
@@ -883,7 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -902,6 +1055,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
@@ -913,7 +1086,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1594116063" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1594298815" count="1">
         <pm:charStyle name="標準" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -1179,7 +1352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A28" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1259,7 +1432,7 @@
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1677,7 +1850,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1594116063" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594298815" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1686,15 +1859,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1594116063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1594116063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId5"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594116063" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594298815" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1921,7 +2094,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1594116063" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594298815" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1930,14 +2103,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1594116063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1594116063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594116063" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594298815" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1974,7 +2147,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1594116063" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594298815" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1983,14 +2156,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1594116063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1594116063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594116063" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594298815" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2001,61 +2174,55 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
-    <col min="2" max="2" width="10.000000" style="4"/>
+    <col min="1" max="1" width="1.144144" customWidth="1"/>
+    <col min="2" max="2" width="15.009009" customWidth="1" style="4"/>
     <col min="3" max="3" width="99.594595" customWidth="1" style="4"/>
     <col min="4" max="4" width="42.162162" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>166</v>
-      </c>
+    <row r="2" spans="2:3">
+      <c r="B2"/>
+      <c r="C2"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -2063,20 +2230,96 @@
         <v>67</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
-      <c r="C8"/>
+    <row r="8" spans="2:3">
+      <c r="B8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1594116063" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594298815" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2085,14 +2328,135 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1594116063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1594116063" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594116063" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594298815" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <cols>
+    <col min="3" max="4" width="52.972973" customWidth="1"/>
+    <col min="5" max="6" width="43.180180" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="16" t="n">
+        <v>43833</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="109.10" customHeight="1">
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="18" t="n">
+        <v>43864</v>
+      </c>
+      <c r="C7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="18" t="n">
+        <v>43893</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="D10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594298815" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594298815" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/サロン勉強計画.xlsx
+++ b/サロン勉強計画.xlsx
@@ -17,10 +17,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1594298815" val="976" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1594298815" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1594298815" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1594298815"/>
+      <pm:revision xmlns:pm="smNativeData" day="1594379785" val="976" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1594379785" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1594379785" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1594379785"/>
     </ext>
   </extLst>
 </workbook>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="242">
   <si>
     <t>task.rb</t>
   </si>
@@ -793,6 +793,136 @@
   <si>
     <t>変身メソッドを定義
 HPが半分以下、かつ、モンスター変身判定フラグがfalseなら「変身」メソッドを実行しモンスター変身判定フラグにtrueを代入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # HPが半分以下、かつ、モンスター変身判定フラグがfalseの時に実行
+    if @hp &lt;= @trigger_of_transform &amp;&amp; @transform_flag == false
+      # モンスター変身判定フラグにtrueを代入
+      @transform_flag = true
+      # 変身メソッドを実行
+      transform
+    end
+  # クラス外から呼び出せないようにする
+  private
+    # 変身メソッドの定義
+    def transform
+    end</t>
+  </si>
+  <si>
+    <t>「変身」メソッド内で、「スライムは怒っている」「スライムはドラゴンに変身した」というメッセージを出力
+モンスターの攻撃力を1.5倍に変更
+モンスターの名前をドラゴンに変更する</t>
+  </si>
+  <si>
+    <t>ヒアドキュメント</t>
+  </si>
+  <si>
+    <t>現在のattackメソッドでは、以下のように色々な処理が混在していてコードが読みづらくなっています。
+通常攻撃か必殺攻撃かの判定（勇者）
+ダメージの計算
+HPへのダメージの反映
+こちらを他のメソッドに切り分け、もっとコードを読みやすくしていきましょう。まずは「通常攻撃か必殺攻撃かの判定（勇者）」から。こちらは、decision_attack_typeとして別のメソッドに切り分けます。</t>
+  </si>
+  <si>
+    <t>decision_attack_typeメソッド</t>
+  </si>
+  <si>
+    <t>「ダメージの計算」の部分を切り分けていきます</t>
+  </si>
+  <si>
+    <t>calculate_damageメソッド</t>
+  </si>
+  <si>
+    <t>HPにダメージを反映</t>
+  </si>
+  <si>
+    <t>cause_damageメソッド</t>
+  </si>
+  <si>
+    <t>privateメソッド</t>
+  </si>
+  <si>
+    <t>クラス外から呼び出される必要のないメソッド</t>
+  </si>
+  <si>
+    <t>ループ処理の実装</t>
+  </si>
+  <si>
+    <t>可読性</t>
+  </si>
+  <si>
+    <t>処理を実行する部分（クラスの定義以外の部分）において目的ごとにコードを分ています</t>
+  </si>
+  <si>
+    <t>「目的ごとに処理を分ける」という意識を持ってコードを書いてみてください</t>
+  </si>
+  <si>
+    <t>クラスの継承</t>
+  </si>
+  <si>
+    <t>既にあるクラスの持っている情報や振る舞いを利用し、さらに拡張したクラスを作成することです。</t>
+  </si>
+  <si>
+    <t>勇者クラスとモンスタークラスがありますが、それらのクラスは保持するインスタンス変数や定義されているメソッドについて共通している部分が多くみられます。その共通部分を「親クラス」として切り出すことで、その親クラスを継承した子クラスは、親クラスにないインスタンス変数やメソッドを定義するだけで良くなります。</t>
+  </si>
+  <si>
+    <t>親クラス Chareacter
+小クラス Brave,Monster</t>
+  </si>
+  <si>
+    <t># Characterクラスを継承
+class Brave &lt; Character</t>
+  </si>
+  <si>
+    <t>supermメソッド</t>
+  </si>
+  <si>
+    <t>実行しているメソッドがオーバーライドしているメソッドを呼び出します。オーバーライドとは「親クラスのメソッドを子クラスで上書きすること」です。今回の例であれば、キャラクタークラスのinitializeメソッドをモンスタークラスのinitializeメソッドで上書きすることを指します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # キャラクタークラスのinitializeメソッドに処理を渡す
+    # 通常のメソッドと同様に引数を渡すことができる
+    super(
+      name: params[:name],
+      hp: params[:hp],
+      offense: params[:offense],
+      defense: params[:defense]
+    )
+    # 親クラスで定義していない処理はそのまま残す
+    @transform_flag = false
+    @trigger_of_transform = params[:hp] * CALC_HALF_HP</t>
+  </si>
+  <si>
+    <t>ファイル分割</t>
+  </si>
+  <si>
+    <t>キャラクタークラスから別のファイルに移動させていきます。character.rbというファイルを作成し、main.rbに記述したキャラクタークラスの定義をcharacter.rbに移しましょう。</t>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t>main.rbからcharacter.rbを読み込めるようにするためにはrequireの記述が必要</t>
+  </si>
+  <si>
+    <t># character.rbを読み込む：Characterクラスが使えるようになる
+require './character'</t>
+  </si>
+  <si>
+    <t>リファクタリング</t>
+  </si>
+  <si>
+    <t>定数</t>
+  </si>
+  <si>
+    <t>プログラムを実行する部分」と「ループ処理・勝者判定・経験値やゴールドの計算などの処理を制御する部分」が混在しています。こちらもmain.rbとgames_controller.rbに分割</t>
+  </si>
+  <si>
+    <t># GamesControllerクラスをインスタンス化
+games_controller = GamesController.new
+offense: 200, defense: 100)
+# GamesControllerクラスのbattleメソッドを使用
+games_controller.battle(brave: terry, monster: slime)</t>
   </si>
 </sst>
 </file>
@@ -810,7 +940,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _¥_-;\-* #,##0.00\ _¥_-;_-* &quot;-&quot;??\ _¥_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="DD/MM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <name val="Arial"/>
       <family val="1"/>
@@ -818,7 +948,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594379785" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -833,7 +963,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594379785" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -849,7 +979,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594379785" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -865,7 +995,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594379785" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -882,7 +1012,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594379785" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -898,7 +1028,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594379785" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -914,7 +1044,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594379785" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -931,7 +1061,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594379785" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -947,7 +1077,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594379785" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="360" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -963,11 +1093,26 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594298815" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594379785" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="360" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
             <hyperlink type="6" url="https://github.com/Kenchiki-chiki/joint_dev_task/blob/master/task.rb" location="" text=""/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594379785" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -986,7 +1131,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594298815" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594379785" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1008,7 +1153,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594298815"/>
+          <pm:border xmlns:pm="smNativeData" id="1594379785"/>
         </ext>
       </extLst>
     </border>
@@ -1027,7 +1172,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594298815"/>
+          <pm:border xmlns:pm="smNativeData" id="1594379785"/>
         </ext>
       </extLst>
     </border>
@@ -1036,7 +1181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1071,10 +1216,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1086,7 +1235,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1594298815" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1594379785" count="1">
         <pm:charStyle name="標準" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -1432,7 +1581,7 @@
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1850,7 +1999,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1594298815" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594379785" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1859,15 +2008,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594379785" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594379785" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId5"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594298815" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594379785" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2094,7 +2243,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1594298815" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594379785" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2103,14 +2252,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594379785" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594379785" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594298815" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594379785" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2147,7 +2296,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1594298815" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594379785" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2156,14 +2305,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594379785" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594379785" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594298815" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594379785" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2319,7 +2468,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1594298815" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594379785" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2328,14 +2477,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594379785" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594379785" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594298815" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594379785" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2346,101 +2495,239 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E11"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
-    <col min="3" max="4" width="52.972973" customWidth="1"/>
-    <col min="5" max="6" width="43.180180" customWidth="1"/>
+    <col min="2" max="2" width="10.000000" style="17"/>
+    <col min="3" max="4" width="52.972973" customWidth="1" style="17"/>
+    <col min="5" max="5" width="43.180180" customWidth="1" style="17"/>
+    <col min="6" max="6" width="43.180180" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="16" t="n">
+      <c r="B2" s="18" t="n">
         <v>43833</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="17" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" t="s">
+      <c r="B4" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="17" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="109.10" customHeight="1">
-      <c r="B5" t="s">
+      <c r="B5" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="17" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="18" t="n">
+      <c r="B7" s="19" t="n">
         <v>43864</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="18" t="n">
+      <c r="B8" s="19" t="n">
         <v>43893</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
-      <c r="D10" t="s">
+    <row r="10" spans="4:5">
+      <c r="D10" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="19" t="s">
+    <row r="11" spans="3:5">
+      <c r="C11" s="17" t="s">
         <v>209</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="19" t="n">
+        <v>43924</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="16" t="n">
+        <v>43834</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="20" t="n">
+        <v>43834</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="21" t="n">
+        <v>43865</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1594298815" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594379785" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2449,14 +2736,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1594298815" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594379785" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594379785" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594298815" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594379785" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
